--- a/Outputs/manuscript/t3-vignettes.xlsx
+++ b/Outputs/manuscript/t3-vignettes.xlsx
@@ -3127,16 +3127,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="63">
-        <v>0.56121324933017525</v>
+        <v>0.56121324933017558</v>
       </c>
       <c r="C2" s="64">
         <v>0.65632594318798976</v>
       </c>
       <c r="D2" s="65">
-        <v>0.33051592202045699</v>
+        <v>0.33051592202045721</v>
       </c>
       <c r="F2" s="66">
-        <v>0.25016840817816149</v>
+        <v>0.25016840817816161</v>
       </c>
       <c r="G2" s="67">
         <v>0.57937142981453604</v>
@@ -3153,7 +3153,7 @@
         <v>0.1522954060258272</v>
       </c>
       <c r="C3" s="70">
-        <v>0.21630010749352979</v>
+        <v>0.21630010749352971</v>
       </c>
       <c r="D3" s="71">
         <v>0.1588421248795778</v>
@@ -3173,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="75">
-        <v>-0.30924910681999718</v>
+        <v>-0.30924910681999701</v>
       </c>
       <c r="C4" s="76">
-        <v>0.18766164446218619</v>
+        <v>0.18766164446218631</v>
       </c>
       <c r="D4" s="77">
         <v>-0.28069368237635067</v>
       </c>
       <c r="E4" s="78">
-        <v>-0.31102196419501671</v>
+        <v>-0.31102196419501688</v>
       </c>
       <c r="F4" s="79">
         <v>-0.0166542114248775</v>
@@ -3191,10 +3191,10 @@
         <v>0.36314767833924672</v>
       </c>
       <c r="H4" s="81">
-        <v>-0.18517990192062289</v>
+        <v>-0.18517990192062281</v>
       </c>
       <c r="I4" s="82">
-        <v>-0.23130453817539601</v>
+        <v>-0.23130453817539609</v>
       </c>
     </row>
     <row r="5">
@@ -3202,28 +3202,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="83">
-        <v>0.1274377802458799</v>
+        <v>0.1274377802458809</v>
       </c>
       <c r="C5" s="84">
         <v>0.23824995775409899</v>
       </c>
       <c r="D5" s="85">
-        <v>0.1061385017855301</v>
+        <v>0.1061385017855303</v>
       </c>
       <c r="E5" s="86">
-        <v>0.11485691821640311</v>
+        <v>0.1148569182164057</v>
       </c>
       <c r="F5" s="87">
-        <v>0.10698312800860291</v>
+        <v>0.1069831280086036</v>
       </c>
       <c r="G5" s="88">
-        <v>0.17362208185530709</v>
+        <v>0.17362208185530689</v>
       </c>
       <c r="H5" s="89">
-        <v>0.099923330369449101</v>
+        <v>0.099923330369449698</v>
       </c>
       <c r="I5" s="90">
-        <v>0.099297407939976406</v>
+        <v>0.099297407939970994</v>
       </c>
     </row>
     <row r="6">
@@ -3281,7 +3281,7 @@
         <v>0.0034663285369311001</v>
       </c>
       <c r="I7" s="106">
-        <v>0.0035447336668724002</v>
+        <v>0.0035447336668724999</v>
       </c>
     </row>
     <row r="8">
@@ -3289,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="107">
-        <v>0.33185103393838389</v>
+        <v>0.33185103393838411</v>
       </c>
       <c r="F8" s="108">
-        <v>0.065174633976522206</v>
+        <v>0.065174633976522095</v>
       </c>
     </row>
     <row r="9">
@@ -3303,7 +3303,7 @@
         <v>0.16977475823197469</v>
       </c>
       <c r="F9" s="110">
-        <v>0.13749714077705519</v>
+        <v>0.13749714077705541</v>
       </c>
     </row>
     <row r="10">
@@ -3311,19 +3311,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="111">
-        <v>0.63648765648375605</v>
+        <v>0.63648765648375583</v>
       </c>
       <c r="C10" s="112">
-        <v>0.1486468830124365</v>
+        <v>0.14864688301243659</v>
       </c>
       <c r="D10" s="113">
-        <v>0.061948692914858002</v>
+        <v>0.061948692914857897</v>
       </c>
       <c r="E10" s="114">
-        <v>0.038283772408178401</v>
+        <v>0.038283772408178603</v>
       </c>
       <c r="F10" s="115">
-        <v>0.25100453234969999</v>
+        <v>0.25100453234969988</v>
       </c>
       <c r="G10" s="116">
         <v>-0.28599178792943958</v>
@@ -3340,28 +3340,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="119">
-        <v>0.092827431765593299</v>
+        <v>0.092827431765592994</v>
       </c>
       <c r="C11" s="120">
-        <v>0.23206510832558211</v>
+        <v>0.2320651083255815</v>
       </c>
       <c r="D11" s="121">
-        <v>0.099048268081384103</v>
+        <v>0.099048268081384394</v>
       </c>
       <c r="E11" s="122">
-        <v>0.1002024931944859</v>
+        <v>0.10020249319448581</v>
       </c>
       <c r="F11" s="123">
-        <v>0.19289050033005881</v>
+        <v>0.1928905003300575</v>
       </c>
       <c r="G11" s="124">
-        <v>0.46389091637844487</v>
+        <v>0.46389091637844282</v>
       </c>
       <c r="H11" s="125">
-        <v>0.19790130362596731</v>
+        <v>0.19790130362596661</v>
       </c>
       <c r="I11" s="126">
-        <v>0.20037315040810511</v>
+        <v>0.20037315040810649</v>
       </c>
     </row>
     <row r="12">
@@ -3372,10 +3372,10 @@
         <v>0.88682104894119651</v>
       </c>
       <c r="E12" s="128">
-        <v>0.88242778925756138</v>
+        <v>0.88242778925756105</v>
       </c>
       <c r="H12" s="129">
-        <v>0.54723460455976858</v>
+        <v>0.54723460455976869</v>
       </c>
       <c r="I12" s="130">
         <v>0.54038233577596118</v>
@@ -3389,7 +3389,7 @@
         <v>0.061878425595894099</v>
       </c>
       <c r="E13" s="132">
-        <v>0.063068602205602398</v>
+        <v>0.0630686022056023</v>
       </c>
       <c r="H13" s="133">
         <v>0.072105891528008004</v>
@@ -3403,28 +3403,28 @@
         <v>7</v>
       </c>
       <c r="B14" s="135">
-        <v>-0.64456029503611934</v>
+        <v>-0.64456029503611922</v>
       </c>
       <c r="C14" s="136">
-        <v>0.78436651910119437</v>
+        <v>0.78436651910119415</v>
       </c>
       <c r="D14" s="137">
-        <v>0.15586034065969059</v>
+        <v>0.15586034065969079</v>
       </c>
       <c r="E14" s="138">
-        <v>0.23206396498343479</v>
+        <v>0.2320639649834346</v>
       </c>
       <c r="F14" s="139">
-        <v>-0.29913872636473682</v>
+        <v>-0.2991387263647366</v>
       </c>
       <c r="G14" s="140">
         <v>1.4766434067362559</v>
       </c>
       <c r="H14" s="141">
-        <v>-0.18622093015856631</v>
+        <v>-0.18622093015856639</v>
       </c>
       <c r="I14" s="142">
-        <v>-0.081494607352841295</v>
+        <v>-0.0814946073528411</v>
       </c>
     </row>
     <row r="15">
@@ -3432,28 +3432,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="143">
-        <v>0.26397955583748001</v>
+        <v>0.26397955583748101</v>
       </c>
       <c r="C15" s="144">
-        <v>0.98725975019367207</v>
+        <v>0.98725975019367007</v>
       </c>
       <c r="D15" s="145">
-        <v>0.22208801137037279</v>
+        <v>0.22208801137037329</v>
       </c>
       <c r="E15" s="146">
-        <v>0.22861301249495139</v>
+        <v>0.22861301249495189</v>
       </c>
       <c r="F15" s="147">
-        <v>0.30708684205159559</v>
+        <v>0.3070868420515922</v>
       </c>
       <c r="G15" s="148">
-        <v>0.97865895263828651</v>
+        <v>0.97865895263828229</v>
       </c>
       <c r="H15" s="149">
-        <v>0.29170335480222742</v>
+        <v>0.29170335480222542</v>
       </c>
       <c r="I15" s="150">
-        <v>0.29339960042485419</v>
+        <v>0.29339960042485819</v>
       </c>
     </row>
     <row r="16">
@@ -3548,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="176">
-        <v>0.083532623054420996</v>
+        <v>0.083532623054420801</v>
       </c>
       <c r="C19" s="178">
         <v>0.14663053038959711</v>
@@ -3557,7 +3557,7 @@
         <v>0.26062184677659389</v>
       </c>
       <c r="E19" s="182">
-        <v>0.24285765485841279</v>
+        <v>0.24285765485841271</v>
       </c>
       <c r="F19" s="184">
         <v>0.35306880904707411</v>

--- a/Outputs/manuscript/t3-vignettes.xlsx
+++ b/Outputs/manuscript/t3-vignettes.xlsx
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="63">
-        <v>0.56121324933017558</v>
+        <v>0.56121324933017547</v>
       </c>
       <c r="C2" s="64">
-        <v>0.65632594318798976</v>
+        <v>0.65632594318798965</v>
       </c>
       <c r="D2" s="65">
-        <v>0.33051592202045721</v>
+        <v>0.33051592202045671</v>
       </c>
       <c r="F2" s="66">
         <v>0.25016840817816161</v>
@@ -3142,7 +3142,7 @@
         <v>0.57937142981453604</v>
       </c>
       <c r="H2" s="68">
-        <v>0.081069963186720398</v>
+        <v>0.081069963186720301</v>
       </c>
     </row>
     <row r="3">
@@ -3150,16 +3150,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="69">
-        <v>0.1522954060258272</v>
+        <v>0.15229540602582731</v>
       </c>
       <c r="C3" s="70">
-        <v>0.21630010749352971</v>
+        <v>0.21630010749352979</v>
       </c>
       <c r="D3" s="71">
         <v>0.1588421248795778</v>
       </c>
       <c r="F3" s="72">
-        <v>0.1393189104760218</v>
+        <v>0.13931891047602191</v>
       </c>
       <c r="G3" s="73">
         <v>0.22784349420590891</v>
@@ -3176,13 +3176,13 @@
         <v>-0.30924910681999701</v>
       </c>
       <c r="C4" s="76">
-        <v>0.18766164446218631</v>
+        <v>0.18766164446218619</v>
       </c>
       <c r="D4" s="77">
         <v>-0.28069368237635067</v>
       </c>
       <c r="E4" s="78">
-        <v>-0.31102196419501688</v>
+        <v>-0.31102196419501671</v>
       </c>
       <c r="F4" s="79">
         <v>-0.0166542114248775</v>
@@ -3191,7 +3191,7 @@
         <v>0.36314767833924672</v>
       </c>
       <c r="H4" s="81">
-        <v>-0.18517990192062281</v>
+        <v>-0.18517990192062289</v>
       </c>
       <c r="I4" s="82">
         <v>-0.23130453817539609</v>
@@ -3202,28 +3202,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="83">
-        <v>0.1274377802458809</v>
+        <v>0.12743778024588059</v>
       </c>
       <c r="C5" s="84">
-        <v>0.23824995775409899</v>
+        <v>0.23824995775409891</v>
       </c>
       <c r="D5" s="85">
-        <v>0.1061385017855303</v>
+        <v>0.1061385017855308</v>
       </c>
       <c r="E5" s="86">
-        <v>0.1148569182164057</v>
+        <v>0.1148569182164025</v>
       </c>
       <c r="F5" s="87">
-        <v>0.1069831280086036</v>
+        <v>0.10698312800860291</v>
       </c>
       <c r="G5" s="88">
         <v>0.17362208185530689</v>
       </c>
       <c r="H5" s="89">
-        <v>0.099923330369449698</v>
+        <v>0.099923330369450405</v>
       </c>
       <c r="I5" s="90">
-        <v>0.099297407939970994</v>
+        <v>0.099297407939974797</v>
       </c>
     </row>
     <row r="6">
@@ -3289,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="107">
-        <v>0.33185103393838411</v>
+        <v>0.33185103393838378</v>
       </c>
       <c r="F8" s="108">
-        <v>0.065174633976522095</v>
+        <v>0.065174633976522206</v>
       </c>
     </row>
     <row r="9">
@@ -3303,7 +3303,7 @@
         <v>0.16977475823197469</v>
       </c>
       <c r="F9" s="110">
-        <v>0.13749714077705541</v>
+        <v>0.13749714077705519</v>
       </c>
     </row>
     <row r="10">
@@ -3314,16 +3314,16 @@
         <v>0.63648765648375583</v>
       </c>
       <c r="C10" s="112">
-        <v>0.14864688301243659</v>
+        <v>0.1486468830124365</v>
       </c>
       <c r="D10" s="113">
-        <v>0.061948692914857897</v>
+        <v>0.061948692914858002</v>
       </c>
       <c r="E10" s="114">
-        <v>0.038283772408178603</v>
+        <v>0.038283772408178401</v>
       </c>
       <c r="F10" s="115">
-        <v>0.25100453234969988</v>
+        <v>0.25100453234969999</v>
       </c>
       <c r="G10" s="116">
         <v>-0.28599178792943958</v>
@@ -3332,7 +3332,7 @@
         <v>0.34843093582990831</v>
       </c>
       <c r="I10" s="118">
-        <v>0.31212598111972939</v>
+        <v>0.31212598111972928</v>
       </c>
     </row>
     <row r="11">
@@ -3343,25 +3343,25 @@
         <v>0.092827431765592994</v>
       </c>
       <c r="C11" s="120">
-        <v>0.2320651083255815</v>
+        <v>0.23206510832558169</v>
       </c>
       <c r="D11" s="121">
-        <v>0.099048268081384394</v>
+        <v>0.099048268081384297</v>
       </c>
       <c r="E11" s="122">
-        <v>0.10020249319448581</v>
+        <v>0.1002024931944856</v>
       </c>
       <c r="F11" s="123">
-        <v>0.1928905003300575</v>
+        <v>0.1928905003300582</v>
       </c>
       <c r="G11" s="124">
         <v>0.46389091637844282</v>
       </c>
       <c r="H11" s="125">
-        <v>0.19790130362596661</v>
+        <v>0.19790130362596689</v>
       </c>
       <c r="I11" s="126">
-        <v>0.20037315040810649</v>
+        <v>0.20037315040810511</v>
       </c>
     </row>
     <row r="12">
@@ -3372,7 +3372,7 @@
         <v>0.88682104894119651</v>
       </c>
       <c r="E12" s="128">
-        <v>0.88242778925756105</v>
+        <v>0.88242778925756138</v>
       </c>
       <c r="H12" s="129">
         <v>0.54723460455976869</v>
@@ -3409,19 +3409,19 @@
         <v>0.78436651910119415</v>
       </c>
       <c r="D14" s="137">
-        <v>0.15586034065969079</v>
+        <v>0.15586034065969051</v>
       </c>
       <c r="E14" s="138">
-        <v>0.2320639649834346</v>
+        <v>0.23206396498343479</v>
       </c>
       <c r="F14" s="139">
-        <v>-0.2991387263647366</v>
+        <v>-0.29913872636473687</v>
       </c>
       <c r="G14" s="140">
         <v>1.4766434067362559</v>
       </c>
       <c r="H14" s="141">
-        <v>-0.18622093015856639</v>
+        <v>-0.18622093015856631</v>
       </c>
       <c r="I14" s="142">
         <v>-0.0814946073528411</v>
@@ -3432,28 +3432,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="143">
-        <v>0.26397955583748101</v>
+        <v>0.2639795558374804</v>
       </c>
       <c r="C15" s="144">
-        <v>0.98725975019367007</v>
+        <v>0.98725975019366863</v>
       </c>
       <c r="D15" s="145">
-        <v>0.22208801137037329</v>
+        <v>0.22208801137037429</v>
       </c>
       <c r="E15" s="146">
-        <v>0.22861301249495189</v>
+        <v>0.2286130124949487</v>
       </c>
       <c r="F15" s="147">
-        <v>0.3070868420515922</v>
+        <v>0.30708684205159398</v>
       </c>
       <c r="G15" s="148">
-        <v>0.97865895263828229</v>
+        <v>0.97865895263828651</v>
       </c>
       <c r="H15" s="149">
         <v>0.29170335480222542</v>
       </c>
       <c r="I15" s="150">
-        <v>0.29339960042485819</v>
+        <v>0.29339960042485708</v>
       </c>
     </row>
     <row r="16">
@@ -3554,7 +3554,7 @@
         <v>0.14663053038959711</v>
       </c>
       <c r="D19" s="180">
-        <v>0.26062184677659389</v>
+        <v>0.26062184677659411</v>
       </c>
       <c r="E19" s="182">
         <v>0.24285765485841271</v>
@@ -3569,7 +3569,7 @@
         <v>0.37502216430269641</v>
       </c>
       <c r="I19" s="190">
-        <v>0.36249087069569103</v>
+        <v>0.36249087069569091</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/manuscript/t3-vignettes.xlsx
+++ b/Outputs/manuscript/t3-vignettes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>MBBS Degree</t>
   </si>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="169" formatCode="#0.00\*_*_*"/>
     <numFmt numFmtId="170" formatCode="#0.00_*_*_*"/>
   </numFmts>
-  <fonts count="217">
+  <fonts count="255">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -457,6 +457,160 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -979,7 +1133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="191">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -1432,777 +1586,1029 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
     <border>
@@ -2321,7 +2727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2571,515 +2977,659 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="89" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="90" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="91" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="92" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="93" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="94" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="95" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="96" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="97" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="98" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="99" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="100" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="102" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="103" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="104" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="105" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="106" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="107" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="108" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="109" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="110" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="111" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="112" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="113" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="114" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="115" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="116" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="117" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="118" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="119" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="120" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="121" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="122" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="123" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="124" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="125" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="126" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="127" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="128" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="129" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="130" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="131" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="132" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="133" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="134" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="135" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="136" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="137" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="138" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="139" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="140" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="141" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="142" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="143" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="144" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="145" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="146" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="147" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="148" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="149" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="150" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="151" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="152" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="153" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="154" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="155" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="156" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="157" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="158" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="159" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="160" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="161" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="162" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="163" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="164" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="165" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="166" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="167" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="168" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="169" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="170" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="171" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="172" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="173" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="174" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="175" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="176" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="177" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="178" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="179" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="180" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="181" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="182" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="183" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="184" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="185" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="186" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="187" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="188" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="189" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="190" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="191" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="192" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="193" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="194" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="195" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="196" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="197" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="198" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="199" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="200" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="201" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="202" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="203" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="204" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="205" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="206" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="207" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="208" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="209" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="210" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="211" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="212" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="213" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="214" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="215" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="216" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="89" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="92" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="93" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="94" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="96" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="97" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="98" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="101" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="103" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="104" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="105" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="106" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="107" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="108" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="109" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="110" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="111" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="112" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="113" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="114" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="115" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="116" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="117" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="118" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="119" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="120" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="121" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="122" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="123" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="124" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="125" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="126" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="127" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="128" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="129" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="130" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="131" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="132" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="133" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="134" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="135" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="136" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="137" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="138" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="139" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="140" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="141" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="142" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="143" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="144" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="145" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="146" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="147" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="148" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="149" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="150" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="151" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="152" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="153" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="154" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="155" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="156" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="157" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="158" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="159" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="160" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="161" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="162" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="163" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="164" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="165" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="166" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="167" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="168" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="169" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="170" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="171" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="172" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="173" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="174" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="175" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="176" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="177" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="178" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="179" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="180" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="181" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="182" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="183" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="184" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="185" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="186" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="187" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="188" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="189" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="190" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="191" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="192" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="193" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="194" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="195" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="196" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="197" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="198" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="199" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="200" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="201" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="202" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="203" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="204" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="205" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="206" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="207" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="208" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="209" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="210" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="211" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="212" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="213" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="214" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="215" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="216" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="217" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="218" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="219" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="220" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="221" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="222" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="223" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="224" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="225" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="226" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="227" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="228" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="229" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="230" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="231" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="232" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="233" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="234" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="235" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="236" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="237" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="238" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="239" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="240" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="241" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="242" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="243" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="244" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="245" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="246" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="247" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="248" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="249" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="250" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="251" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="252" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="253" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="254" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3092,7 +3642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3107,18 +3657,24 @@
         <v>14</v>
       </c>
       <c r="E1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="G1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="I1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="68" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3126,74 +3682,92 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="69">
         <v>0.56121324933017547</v>
       </c>
-      <c r="C2" s="64">
-        <v>0.65632594318798965</v>
-      </c>
-      <c r="D2" s="65">
-        <v>0.33051592202045671</v>
-      </c>
-      <c r="F2" s="66">
+      <c r="C2" s="70">
+        <v>0.65632594318798976</v>
+      </c>
+      <c r="D2" s="71">
+        <v>0.48006645098854772</v>
+      </c>
+      <c r="E2" s="72">
+        <v>0.33051592202045688</v>
+      </c>
+      <c r="G2" s="73">
         <v>0.25016840817816161</v>
       </c>
-      <c r="G2" s="67">
+      <c r="H2" s="74">
         <v>0.57937142981453604</v>
       </c>
-      <c r="H2" s="68">
-        <v>0.081069963186720301</v>
+      <c r="I2" s="75">
+        <v>0.065234783608166896</v>
+      </c>
+      <c r="J2" s="76">
+        <v>0.081069963186720398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69">
-        <v>0.15229540602582731</v>
-      </c>
-      <c r="C3" s="70">
+      <c r="B3" s="77">
+        <v>0.1522954060258272</v>
+      </c>
+      <c r="C3" s="78">
         <v>0.21630010749352979</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="79">
+        <v>0.19233533610090359</v>
+      </c>
+      <c r="E3" s="80">
         <v>0.1588421248795778</v>
       </c>
-      <c r="F3" s="72">
+      <c r="G3" s="81">
         <v>0.13931891047602191</v>
       </c>
-      <c r="G3" s="73">
+      <c r="H3" s="82">
         <v>0.22784349420590891</v>
       </c>
-      <c r="H3" s="74">
-        <v>0.16745381983752711</v>
+      <c r="I3" s="83">
+        <v>0.17193908478555539</v>
+      </c>
+      <c r="J3" s="84">
+        <v>0.16745381983752719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75">
-        <v>-0.30924910681999701</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0.18766164446218619</v>
-      </c>
-      <c r="D4" s="77">
-        <v>-0.28069368237635067</v>
-      </c>
-      <c r="E4" s="78">
-        <v>-0.31102196419501671</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="B4" s="85">
+        <v>-0.30924910681999718</v>
+      </c>
+      <c r="C4" s="86">
+        <v>0.18766164446218631</v>
+      </c>
+      <c r="D4" s="87">
+        <v>-0.53570588841842304</v>
+      </c>
+      <c r="E4" s="88">
+        <v>-0.28069368237635062</v>
+      </c>
+      <c r="F4" s="89">
+        <v>-0.31102196419501688</v>
+      </c>
+      <c r="G4" s="90">
         <v>-0.0166542114248775</v>
       </c>
-      <c r="G4" s="80">
+      <c r="H4" s="91">
         <v>0.36314767833924672</v>
       </c>
-      <c r="H4" s="81">
+      <c r="I4" s="92">
+        <v>-0.2279444102399529</v>
+      </c>
+      <c r="J4" s="93">
         <v>-0.18517990192062289</v>
       </c>
-      <c r="I4" s="82">
+      <c r="K4" s="94">
         <v>-0.23130453817539609</v>
       </c>
     </row>
@@ -3201,57 +3775,69 @@
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="83">
-        <v>0.12743778024588059</v>
-      </c>
-      <c r="C5" s="84">
-        <v>0.23824995775409891</v>
-      </c>
-      <c r="D5" s="85">
-        <v>0.1061385017855308</v>
-      </c>
-      <c r="E5" s="86">
-        <v>0.1148569182164025</v>
-      </c>
-      <c r="F5" s="87">
-        <v>0.10698312800860291</v>
-      </c>
-      <c r="G5" s="88">
-        <v>0.17362208185530689</v>
-      </c>
-      <c r="H5" s="89">
-        <v>0.099923330369450405</v>
-      </c>
-      <c r="I5" s="90">
-        <v>0.099297407939974797</v>
+      <c r="B5" s="95">
+        <v>0.1274377802458799</v>
+      </c>
+      <c r="C5" s="96">
+        <v>0.23824995775409899</v>
+      </c>
+      <c r="D5" s="97">
+        <v>0.13945749866996959</v>
+      </c>
+      <c r="E5" s="98">
+        <v>0.1061385017855289</v>
+      </c>
+      <c r="F5" s="99">
+        <v>0.1148569182164044</v>
+      </c>
+      <c r="G5" s="100">
+        <v>0.106983128008602</v>
+      </c>
+      <c r="H5" s="101">
+        <v>0.17362208185530709</v>
+      </c>
+      <c r="I5" s="102">
+        <v>0.11379034794698301</v>
+      </c>
+      <c r="J5" s="103">
+        <v>0.099923330369451099</v>
+      </c>
+      <c r="K5" s="104">
+        <v>0.099297407939977905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="105">
         <v>-0.0015310790756463001</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="106">
         <v>-0.022141415016445801</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="107">
+        <v>-0.00031625871631349998</v>
+      </c>
+      <c r="E6" s="108">
         <v>-0.00088455885755389999</v>
       </c>
-      <c r="E6" s="94">
+      <c r="F6" s="109">
         <v>-0.0014298567232211999</v>
       </c>
-      <c r="F6" s="95">
+      <c r="G6" s="110">
         <v>-0.0048210068390163998</v>
       </c>
-      <c r="G6" s="96">
+      <c r="H6" s="111">
         <v>-0.026866747619026601</v>
       </c>
-      <c r="H6" s="97">
+      <c r="I6" s="112">
+        <v>-0.0037753611968754002</v>
+      </c>
+      <c r="J6" s="113">
         <v>-0.0042764949306440996</v>
       </c>
-      <c r="I6" s="98">
+      <c r="K6" s="114">
         <v>-0.0051449281846435999</v>
       </c>
     </row>
@@ -3259,28 +3845,34 @@
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="115">
         <v>0.0041317710399386004</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="116">
         <v>0.018859988094596099</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="117">
+        <v>0.0042049257149288002</v>
+      </c>
+      <c r="E7" s="118">
         <v>0.0035679608712311001</v>
       </c>
-      <c r="E7" s="102">
+      <c r="F7" s="119">
         <v>0.0036459049169599001</v>
       </c>
-      <c r="F7" s="103">
+      <c r="G7" s="120">
         <v>0.0034759299199722</v>
       </c>
-      <c r="G7" s="104">
+      <c r="H7" s="121">
         <v>0.0146470239935792</v>
       </c>
-      <c r="H7" s="105">
+      <c r="I7" s="122">
+        <v>0.0035870400215634998</v>
+      </c>
+      <c r="J7" s="123">
         <v>0.0034663285369311001</v>
       </c>
-      <c r="I7" s="106">
+      <c r="K7" s="124">
         <v>0.0035447336668724999</v>
       </c>
     </row>
@@ -3288,21 +3880,21 @@
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="107">
-        <v>0.33185103393838378</v>
-      </c>
-      <c r="F8" s="108">
-        <v>0.065174633976522206</v>
+      <c r="B8" s="125">
+        <v>0.33185103393838411</v>
+      </c>
+      <c r="G8" s="126">
+        <v>0.065174633976522095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="109">
+      <c r="B9" s="127">
         <v>0.16977475823197469</v>
       </c>
-      <c r="F9" s="110">
+      <c r="G9" s="128">
         <v>0.13749714077705519</v>
       </c>
     </row>
@@ -3310,74 +3902,86 @@
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="111">
-        <v>0.63648765648375583</v>
-      </c>
-      <c r="C10" s="112">
-        <v>0.1486468830124365</v>
-      </c>
-      <c r="D10" s="113">
-        <v>0.061948692914858002</v>
-      </c>
-      <c r="E10" s="114">
-        <v>0.038283772408178401</v>
-      </c>
-      <c r="F10" s="115">
+      <c r="B10" s="129">
+        <v>0.6364876564837556</v>
+      </c>
+      <c r="C10" s="130">
+        <v>0.14864688301243659</v>
+      </c>
+      <c r="D10" s="131">
+        <v>0.67669918391932238</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0.061948692914857897</v>
+      </c>
+      <c r="F10" s="133">
+        <v>0.038283772408178603</v>
+      </c>
+      <c r="G10" s="134">
         <v>0.25100453234969999</v>
       </c>
-      <c r="G10" s="116">
-        <v>-0.28599178792943958</v>
-      </c>
-      <c r="H10" s="117">
+      <c r="H10" s="135">
+        <v>-0.28599178792943969</v>
+      </c>
+      <c r="I10" s="136">
+        <v>0.34286001763016238</v>
+      </c>
+      <c r="J10" s="137">
         <v>0.34843093582990831</v>
       </c>
-      <c r="I10" s="118">
-        <v>0.31212598111972928</v>
+      <c r="K10" s="138">
+        <v>0.31212598111972939</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="119">
-        <v>0.092827431765592994</v>
-      </c>
-      <c r="C11" s="120">
-        <v>0.23206510832558169</v>
-      </c>
-      <c r="D11" s="121">
+      <c r="B11" s="139">
+        <v>0.092827431765593105</v>
+      </c>
+      <c r="C11" s="140">
+        <v>0.23206510832558161</v>
+      </c>
+      <c r="D11" s="141">
+        <v>0.098952439333833797</v>
+      </c>
+      <c r="E11" s="142">
         <v>0.099048268081384297</v>
       </c>
-      <c r="E11" s="122">
-        <v>0.1002024931944856</v>
-      </c>
-      <c r="F11" s="123">
-        <v>0.1928905003300582</v>
-      </c>
-      <c r="G11" s="124">
-        <v>0.46389091637844282</v>
-      </c>
-      <c r="H11" s="125">
+      <c r="F11" s="143">
+        <v>0.1002024931944857</v>
+      </c>
+      <c r="G11" s="144">
+        <v>0.1928905003300572</v>
+      </c>
+      <c r="H11" s="145">
+        <v>0.46389091637844487</v>
+      </c>
+      <c r="I11" s="146">
+        <v>0.20325264902384771</v>
+      </c>
+      <c r="J11" s="147">
         <v>0.19790130362596689</v>
       </c>
-      <c r="I11" s="126">
-        <v>0.20037315040810511</v>
+      <c r="K11" s="148">
+        <v>0.20037315040810619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="127">
+      <c r="E12" s="149">
         <v>0.88682104894119651</v>
       </c>
-      <c r="E12" s="128">
-        <v>0.88242778925756138</v>
-      </c>
-      <c r="H12" s="129">
-        <v>0.54723460455976869</v>
-      </c>
-      <c r="I12" s="130">
+      <c r="F12" s="150">
+        <v>0.88242778925756105</v>
+      </c>
+      <c r="J12" s="151">
+        <v>0.54723460455976858</v>
+      </c>
+      <c r="K12" s="152">
         <v>0.54038233577596118</v>
       </c>
     </row>
@@ -3385,16 +3989,16 @@
       <c r="A13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="131">
+      <c r="E13" s="153">
         <v>0.061878425595894099</v>
       </c>
-      <c r="E13" s="132">
-        <v>0.0630686022056023</v>
-      </c>
-      <c r="H13" s="133">
+      <c r="F13" s="154">
+        <v>0.063068602205602398</v>
+      </c>
+      <c r="J13" s="155">
         <v>0.072105891528008004</v>
       </c>
-      <c r="I13" s="134">
+      <c r="K13" s="156">
         <v>0.072709269699068102</v>
       </c>
     </row>
@@ -3402,28 +4006,34 @@
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="135">
-        <v>-0.64456029503611922</v>
-      </c>
-      <c r="C14" s="136">
+      <c r="B14" s="157">
+        <v>-0.64456029503611889</v>
+      </c>
+      <c r="C14" s="158">
         <v>0.78436651910119415</v>
       </c>
-      <c r="D14" s="137">
-        <v>0.15586034065969051</v>
-      </c>
-      <c r="E14" s="138">
-        <v>0.23206396498343479</v>
-      </c>
-      <c r="F14" s="139">
-        <v>-0.29913872636473687</v>
-      </c>
-      <c r="G14" s="140">
+      <c r="D14" s="159">
+        <v>-0.51961365387938374</v>
+      </c>
+      <c r="E14" s="160">
+        <v>0.1558603406596907</v>
+      </c>
+      <c r="F14" s="161">
+        <v>0.23206396498343471</v>
+      </c>
+      <c r="G14" s="162">
+        <v>-0.29913872636473682</v>
+      </c>
+      <c r="H14" s="163">
         <v>1.4766434067362559</v>
       </c>
-      <c r="H14" s="141">
+      <c r="I14" s="164">
+        <v>-0.28272772734725882</v>
+      </c>
+      <c r="J14" s="165">
         <v>-0.18622093015856631</v>
       </c>
-      <c r="I14" s="142">
+      <c r="K14" s="166">
         <v>-0.0814946073528411</v>
       </c>
     </row>
@@ -3431,57 +4041,69 @@
       <c r="A15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="143">
-        <v>0.2639795558374804</v>
-      </c>
-      <c r="C15" s="144">
-        <v>0.98725975019366863</v>
-      </c>
-      <c r="D15" s="145">
-        <v>0.22208801137037429</v>
-      </c>
-      <c r="E15" s="146">
-        <v>0.2286130124949487</v>
-      </c>
-      <c r="F15" s="147">
-        <v>0.30708684205159398</v>
-      </c>
-      <c r="G15" s="148">
+      <c r="B15" s="167">
+        <v>0.26397955583748101</v>
+      </c>
+      <c r="C15" s="168">
+        <v>0.98725975019367007</v>
+      </c>
+      <c r="D15" s="169">
+        <v>0.25540428383690211</v>
+      </c>
+      <c r="E15" s="170">
+        <v>0.22208801137037321</v>
+      </c>
+      <c r="F15" s="171">
+        <v>0.2286130124949497</v>
+      </c>
+      <c r="G15" s="172">
+        <v>0.30708684205159231</v>
+      </c>
+      <c r="H15" s="173">
         <v>0.97865895263828651</v>
       </c>
-      <c r="H15" s="149">
+      <c r="I15" s="174">
+        <v>0.30089445442266471</v>
+      </c>
+      <c r="J15" s="175">
         <v>0.29170335480222542</v>
       </c>
-      <c r="I15" s="150">
-        <v>0.29339960042485708</v>
+      <c r="K15" s="176">
+        <v>0.29339960042486279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="151">
+      <c r="B16" s="177">
         <v>1451</v>
       </c>
-      <c r="C16" s="152">
+      <c r="C16" s="178">
         <v>165</v>
       </c>
-      <c r="D16" s="153">
+      <c r="D16" s="179">
         <v>1286</v>
       </c>
-      <c r="E16" s="154">
+      <c r="E16" s="180">
+        <v>1286</v>
+      </c>
+      <c r="F16" s="181">
         <v>1224</v>
       </c>
-      <c r="F16" s="155">
+      <c r="G16" s="182">
         <v>1451</v>
       </c>
-      <c r="G16" s="156">
+      <c r="H16" s="183">
         <v>165</v>
       </c>
-      <c r="H16" s="157">
+      <c r="I16" s="184">
         <v>1286</v>
       </c>
-      <c r="I16" s="158">
+      <c r="J16" s="185">
+        <v>1286</v>
+      </c>
+      <c r="K16" s="186">
         <v>1224</v>
       </c>
     </row>
@@ -3489,28 +4111,34 @@
       <c r="A17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="159">
+      <c r="B17" s="187">
         <v>-0.0046327052830329001</v>
       </c>
-      <c r="C17" s="160">
+      <c r="C17" s="188">
         <v>0.64490459403587563</v>
       </c>
-      <c r="D17" s="161">
+      <c r="D17" s="189">
         <v>-0.087971472302955003</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="190">
+        <v>-0.087971472302955003</v>
+      </c>
+      <c r="F17" s="191">
         <v>-0.1278954050426632</v>
       </c>
-      <c r="F17" s="163">
+      <c r="G17" s="192">
         <v>-0.0046327052830329001</v>
       </c>
-      <c r="G17" s="164">
+      <c r="H17" s="193">
         <v>0.64490459403587563</v>
       </c>
-      <c r="H17" s="165">
+      <c r="I17" s="194">
         <v>-0.087971472302955003</v>
       </c>
-      <c r="I17" s="166">
+      <c r="J17" s="195">
+        <v>-0.087971472302955003</v>
+      </c>
+      <c r="K17" s="196">
         <v>-0.1278954050426632</v>
       </c>
     </row>
@@ -3518,28 +4146,34 @@
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="167">
+      <c r="B18" s="197">
         <v>1.2390117681245221</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="198">
         <v>0.97909970331943341</v>
       </c>
-      <c r="D18" s="169">
+      <c r="D18" s="199">
         <v>1.244507430397322</v>
       </c>
-      <c r="E18" s="170">
+      <c r="E18" s="200">
+        <v>1.244507430397322</v>
+      </c>
+      <c r="F18" s="201">
         <v>1.243481291825141</v>
       </c>
-      <c r="F18" s="171">
+      <c r="G18" s="202">
         <v>1.2390117681245221</v>
       </c>
-      <c r="G18" s="172">
+      <c r="H18" s="203">
         <v>0.97909970331943341</v>
       </c>
-      <c r="H18" s="173">
+      <c r="I18" s="204">
         <v>1.244507430397322</v>
       </c>
-      <c r="I18" s="174">
+      <c r="J18" s="205">
+        <v>1.244507430397322</v>
+      </c>
+      <c r="K18" s="206">
         <v>1.243481291825141</v>
       </c>
     </row>
@@ -3547,28 +4181,34 @@
       <c r="A19" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="176">
+      <c r="B19" s="208">
         <v>0.083532623054420801</v>
       </c>
-      <c r="C19" s="178">
-        <v>0.14663053038959711</v>
-      </c>
-      <c r="D19" s="180">
+      <c r="C19" s="210">
+        <v>0.14663053038959689</v>
+      </c>
+      <c r="D19" s="212">
+        <v>0.060736480781608197</v>
+      </c>
+      <c r="E19" s="214">
         <v>0.26062184677659411</v>
       </c>
-      <c r="E19" s="182">
+      <c r="F19" s="216">
         <v>0.24285765485841271</v>
       </c>
-      <c r="F19" s="184">
-        <v>0.35306880904707411</v>
-      </c>
-      <c r="G19" s="186">
+      <c r="G19" s="218">
+        <v>0.35306880904707377</v>
+      </c>
+      <c r="H19" s="220">
         <v>0.47404065179798299</v>
       </c>
-      <c r="H19" s="188">
+      <c r="I19" s="222">
+        <v>0.33969377760306418</v>
+      </c>
+      <c r="J19" s="224">
         <v>0.37502216430269641</v>
       </c>
-      <c r="I19" s="190">
+      <c r="K19" s="226">
         <v>0.36249087069569091</v>
       </c>
     </row>

--- a/Outputs/manuscript/t3-vignettes.xlsx
+++ b/Outputs/manuscript/t3-vignettes.xlsx
@@ -74,7 +74,7 @@
     <numFmt numFmtId="169" formatCode="#0.00\*_*_*"/>
     <numFmt numFmtId="170" formatCode="#0.00_*_*_*"/>
   </numFmts>
-  <fonts count="255">
+  <fonts count="245">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -491,46 +491,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <b/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1133,7 +1093,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="227">
+  <borders count="217">
     <border>
       <left/>
       <right/>
@@ -2524,76 +2484,6 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -2727,7 +2617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3590,46 +3480,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="244" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="245" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="246" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="247" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="248" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="249" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="250" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="251" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="252" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="253" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="254" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3686,16 +3536,16 @@
         <v>0.56121324933017547</v>
       </c>
       <c r="C2" s="70">
-        <v>0.65632594318798976</v>
+        <v>0.65632594318798965</v>
       </c>
       <c r="D2" s="71">
         <v>0.48006645098854772</v>
       </c>
       <c r="E2" s="72">
-        <v>0.33051592202045688</v>
+        <v>0.3305159220204571</v>
       </c>
       <c r="G2" s="73">
-        <v>0.25016840817816161</v>
+        <v>0.25016840817816172</v>
       </c>
       <c r="H2" s="74">
         <v>0.57937142981453604</v>
@@ -3727,7 +3577,7 @@
         <v>0.13931891047602191</v>
       </c>
       <c r="H3" s="82">
-        <v>0.22784349420590891</v>
+        <v>0.22784349420590899</v>
       </c>
       <c r="I3" s="83">
         <v>0.17193908478555539</v>
@@ -3741,22 +3591,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="85">
-        <v>-0.30924910681999718</v>
+        <v>-0.30924910681999701</v>
       </c>
       <c r="C4" s="86">
-        <v>0.18766164446218631</v>
+        <v>0.18766164446218619</v>
       </c>
       <c r="D4" s="87">
-        <v>-0.53570588841842304</v>
+        <v>-0.53570588841842315</v>
       </c>
       <c r="E4" s="88">
-        <v>-0.28069368237635062</v>
+        <v>-0.28069368237635067</v>
       </c>
       <c r="F4" s="89">
-        <v>-0.31102196419501688</v>
+        <v>-0.31102196419501732</v>
       </c>
       <c r="G4" s="90">
-        <v>-0.0166542114248775</v>
+        <v>-0.016654211424877399</v>
       </c>
       <c r="H4" s="91">
         <v>0.36314767833924672</v>
@@ -3782,16 +3632,16 @@
         <v>0.23824995775409899</v>
       </c>
       <c r="D5" s="97">
-        <v>0.13945749866996959</v>
+        <v>0.13945749866997051</v>
       </c>
       <c r="E5" s="98">
-        <v>0.1061385017855289</v>
+        <v>0.10613850178552971</v>
       </c>
       <c r="F5" s="99">
-        <v>0.1148569182164044</v>
+        <v>0.11485691821640311</v>
       </c>
       <c r="G5" s="100">
-        <v>0.106983128008602</v>
+        <v>0.10698312800860239</v>
       </c>
       <c r="H5" s="101">
         <v>0.17362208185530709</v>
@@ -3800,10 +3650,10 @@
         <v>0.11379034794698301</v>
       </c>
       <c r="J5" s="103">
-        <v>0.099923330369451099</v>
+        <v>0.099923330369449698</v>
       </c>
       <c r="K5" s="104">
-        <v>0.099297407939977905</v>
+        <v>0.099297407939974103</v>
       </c>
     </row>
     <row r="6">
@@ -3881,10 +3731,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="125">
-        <v>0.33185103393838411</v>
+        <v>0.33185103393838378</v>
       </c>
       <c r="G8" s="126">
-        <v>0.065174633976522095</v>
+        <v>0.065174633976522206</v>
       </c>
     </row>
     <row r="9">
@@ -3903,16 +3753,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="129">
-        <v>0.6364876564837556</v>
+        <v>0.63648765648375583</v>
       </c>
       <c r="C10" s="130">
         <v>0.14864688301243659</v>
       </c>
       <c r="D10" s="131">
-        <v>0.67669918391932238</v>
+        <v>0.67669918391932216</v>
       </c>
       <c r="E10" s="132">
-        <v>0.061948692914857897</v>
+        <v>0.061948692914857599</v>
       </c>
       <c r="F10" s="133">
         <v>0.038283772408178603</v>
@@ -3921,7 +3771,7 @@
         <v>0.25100453234969999</v>
       </c>
       <c r="H10" s="135">
-        <v>-0.28599178792943969</v>
+        <v>-0.28599178792943958</v>
       </c>
       <c r="I10" s="136">
         <v>0.34286001763016238</v>
@@ -3938,22 +3788,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="139">
-        <v>0.092827431765593105</v>
+        <v>0.092827431765593202</v>
       </c>
       <c r="C11" s="140">
-        <v>0.23206510832558161</v>
+        <v>0.23206510832558219</v>
       </c>
       <c r="D11" s="141">
-        <v>0.098952439333833797</v>
+        <v>0.0989524393338337</v>
       </c>
       <c r="E11" s="142">
-        <v>0.099048268081384297</v>
+        <v>0.099048268081384394</v>
       </c>
       <c r="F11" s="143">
         <v>0.1002024931944857</v>
       </c>
       <c r="G11" s="144">
-        <v>0.1928905003300572</v>
+        <v>0.19289050033005661</v>
       </c>
       <c r="H11" s="145">
         <v>0.46389091637844487</v>
@@ -3962,10 +3812,10 @@
         <v>0.20325264902384771</v>
       </c>
       <c r="J11" s="147">
-        <v>0.19790130362596689</v>
+        <v>0.1979013036259662</v>
       </c>
       <c r="K11" s="148">
-        <v>0.20037315040810619</v>
+        <v>0.2003731504081066</v>
       </c>
     </row>
     <row r="12">
@@ -3973,7 +3823,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="149">
-        <v>0.88682104894119651</v>
+        <v>0.88682104894119662</v>
       </c>
       <c r="F12" s="150">
         <v>0.88242778925756105</v>
@@ -3982,7 +3832,7 @@
         <v>0.54723460455976858</v>
       </c>
       <c r="K12" s="152">
-        <v>0.54038233577596118</v>
+        <v>0.54038233577596106</v>
       </c>
     </row>
     <row r="13">
@@ -3993,7 +3843,7 @@
         <v>0.061878425595894099</v>
       </c>
       <c r="F13" s="154">
-        <v>0.063068602205602398</v>
+        <v>0.0630686022056023</v>
       </c>
       <c r="J13" s="155">
         <v>0.072105891528008004</v>
@@ -4007,19 +3857,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="157">
-        <v>-0.64456029503611889</v>
+        <v>-0.64456029503611922</v>
       </c>
       <c r="C14" s="158">
         <v>0.78436651910119415</v>
       </c>
       <c r="D14" s="159">
-        <v>-0.51961365387938374</v>
+        <v>-0.5196136538793833</v>
       </c>
       <c r="E14" s="160">
-        <v>0.1558603406596907</v>
+        <v>0.1558603406596912</v>
       </c>
       <c r="F14" s="161">
-        <v>0.23206396498343471</v>
+        <v>0.23206396498343521</v>
       </c>
       <c r="G14" s="162">
         <v>-0.29913872636473682</v>
@@ -4034,7 +3884,7 @@
         <v>-0.18622093015856631</v>
       </c>
       <c r="K14" s="166">
-        <v>-0.0814946073528411</v>
+        <v>-0.081494607352841295</v>
       </c>
     </row>
     <row r="15">
@@ -4042,34 +3892,34 @@
         <v>1</v>
       </c>
       <c r="B15" s="167">
-        <v>0.26397955583748101</v>
+        <v>0.26397955583748139</v>
       </c>
       <c r="C15" s="168">
         <v>0.98725975019367007</v>
       </c>
       <c r="D15" s="169">
-        <v>0.25540428383690211</v>
+        <v>0.25540428383690078</v>
       </c>
       <c r="E15" s="170">
-        <v>0.22208801137037321</v>
+        <v>0.22208801137037459</v>
       </c>
       <c r="F15" s="171">
-        <v>0.2286130124949497</v>
+        <v>0.2286130124949492</v>
       </c>
       <c r="G15" s="172">
-        <v>0.30708684205159231</v>
+        <v>0.3070868420515907</v>
       </c>
       <c r="H15" s="173">
-        <v>0.97865895263828651</v>
+        <v>0.97865895263828517</v>
       </c>
       <c r="I15" s="174">
-        <v>0.30089445442266471</v>
+        <v>0.30089445442266671</v>
       </c>
       <c r="J15" s="175">
-        <v>0.29170335480222542</v>
+        <v>0.2917033548022272</v>
       </c>
       <c r="K15" s="176">
-        <v>0.29339960042486279</v>
+        <v>0.2933996004248593</v>
       </c>
     </row>
     <row r="16">
@@ -4146,70 +3996,40 @@
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="197">
-        <v>1.2390117681245221</v>
-      </c>
-      <c r="C18" s="198">
-        <v>0.97909970331943341</v>
-      </c>
-      <c r="D18" s="199">
-        <v>1.244507430397322</v>
-      </c>
-      <c r="E18" s="200">
-        <v>1.244507430397322</v>
-      </c>
-      <c r="F18" s="201">
-        <v>1.243481291825141</v>
-      </c>
-      <c r="G18" s="202">
-        <v>1.2390117681245221</v>
-      </c>
-      <c r="H18" s="203">
-        <v>0.97909970331943341</v>
-      </c>
-      <c r="I18" s="204">
-        <v>1.244507430397322</v>
-      </c>
-      <c r="J18" s="205">
-        <v>1.244507430397322</v>
-      </c>
-      <c r="K18" s="206">
-        <v>1.243481291825141</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="208">
+      <c r="B19" s="198">
         <v>0.083532623054420801</v>
       </c>
-      <c r="C19" s="210">
-        <v>0.14663053038959689</v>
-      </c>
-      <c r="D19" s="212">
+      <c r="C19" s="200">
+        <v>0.14663053038959711</v>
+      </c>
+      <c r="D19" s="202">
         <v>0.060736480781608197</v>
       </c>
-      <c r="E19" s="214">
-        <v>0.26062184677659411</v>
-      </c>
-      <c r="F19" s="216">
-        <v>0.24285765485841271</v>
-      </c>
-      <c r="G19" s="218">
+      <c r="E19" s="204">
+        <v>0.26062184677659389</v>
+      </c>
+      <c r="F19" s="206">
+        <v>0.24285765485841279</v>
+      </c>
+      <c r="G19" s="208">
         <v>0.35306880904707377</v>
       </c>
-      <c r="H19" s="220">
+      <c r="H19" s="210">
         <v>0.47404065179798299</v>
       </c>
-      <c r="I19" s="222">
-        <v>0.33969377760306418</v>
-      </c>
-      <c r="J19" s="224">
-        <v>0.37502216430269641</v>
-      </c>
-      <c r="K19" s="226">
-        <v>0.36249087069569091</v>
+      <c r="I19" s="212">
+        <v>0.33969377760306441</v>
+      </c>
+      <c r="J19" s="214">
+        <v>0.37502216430269653</v>
+      </c>
+      <c r="K19" s="216">
+        <v>0.36249087069569103</v>
       </c>
     </row>
   </sheetData>
